--- a/biology/Histoire de la zoologie et de la botanique/John_Eugene_Law/John_Eugene_Law.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Eugene_Law/John_Eugene_Law.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Eugene Law est un ornithologue amateur américain, né le 26 août 1877 à Forest City (Iowa) et mort le 14 novembre 1931 à Glendale (Californie).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de John et de Katherine E. Law. Il étudie à Perry (Iowa) de 1892 à 1896, puis passe deux années à l’université du Wisconsin à Madison. Il part alors à l’université Stanford en Californie où il reçoit son Bachelor of Arts en 1900.
 De 1900 à 1903, il est caissier à la First National Bank à Pomona (Californie), puis, de 1903 à 1911 à Hollywood, puis, de 1911 à 1914, il dirige deux agences bancaires. Il prend sa retraite en 1914.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>[PDF] (en) Joseph Grinnell (1932), John Eugene Law – A Biography with portrait. The Condor, 34 (4) : 165-173.</t>
         </is>
